--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.02061</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>0.28110186245</v>
+        <v>0.2093031604</v>
       </c>
       <c r="R2">
-        <v>2.52991676205</v>
+        <v>1.8837284436</v>
       </c>
       <c r="S2">
-        <v>0.2897771170516137</v>
+        <v>0.04395457441683992</v>
       </c>
       <c r="T2">
-        <v>0.3083463959441224</v>
+        <v>0.04689416139414427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.02061</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
         <v>0.23865099432</v>
@@ -638,10 +638,10 @@
         <v>2.14785894888</v>
       </c>
       <c r="S3">
-        <v>0.2460161470038337</v>
+        <v>0.05011774724014765</v>
       </c>
       <c r="T3">
-        <v>0.2617811683839067</v>
+        <v>0.05346951390092381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.02061</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>0.12920228319</v>
+        <v>0.1627528648</v>
       </c>
       <c r="R4">
-        <v>1.16282054871</v>
+        <v>1.4647757832</v>
       </c>
       <c r="S4">
-        <v>0.1331896729995656</v>
+        <v>0.03417880978831836</v>
       </c>
       <c r="T4">
-        <v>0.1417246332776418</v>
+        <v>0.03646461474688053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.02061</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>0.17525767773</v>
+        <v>0.180109872855</v>
       </c>
       <c r="R5">
-        <v>1.05154606638</v>
+        <v>1.08065923713</v>
       </c>
       <c r="S5">
-        <v>0.1806664109270835</v>
+        <v>0.03782385700475392</v>
       </c>
       <c r="T5">
-        <v>0.1281624931702333</v>
+        <v>0.02690228989758141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.02061</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>0.14584950231</v>
+        <v>0.16692552876</v>
       </c>
       <c r="R6">
-        <v>1.31264552079</v>
+        <v>1.50232975884</v>
       </c>
       <c r="S6">
-        <v>0.1503506520179033</v>
+        <v>0.03505508737627151</v>
       </c>
       <c r="T6">
-        <v>0.1599853092240957</v>
+        <v>0.03739949588680128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.027287</v>
+      </c>
+      <c r="H7">
+        <v>0.081861</v>
+      </c>
+      <c r="I7">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J7">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>30.46625333333334</v>
+      </c>
+      <c r="N7">
+        <v>91.39876000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2185380492512374</v>
+      </c>
+      <c r="P7">
+        <v>0.2331534018544084</v>
+      </c>
+      <c r="Q7">
+        <v>0.8313326547066668</v>
+      </c>
+      <c r="R7">
+        <v>7.481993892360001</v>
+      </c>
+      <c r="S7">
+        <v>0.1745834748343975</v>
+      </c>
+      <c r="T7">
+        <v>0.1862592404602642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.027287</v>
+      </c>
+      <c r="H8">
+        <v>0.081861</v>
+      </c>
+      <c r="I8">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J8">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.738136</v>
+      </c>
+      <c r="N8">
+        <v>104.214408</v>
+      </c>
+      <c r="O8">
+        <v>0.2491807703757967</v>
+      </c>
+      <c r="P8">
+        <v>0.2658454419670822</v>
+      </c>
+      <c r="Q8">
+        <v>0.947899517032</v>
+      </c>
+      <c r="R8">
+        <v>8.531095653288</v>
+      </c>
+      <c r="S8">
+        <v>0.1990630231356491</v>
+      </c>
+      <c r="T8">
+        <v>0.2123759280661584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.027287</v>
+      </c>
+      <c r="H9">
+        <v>0.081861</v>
+      </c>
+      <c r="I9">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J9">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.69037333333334</v>
+      </c>
+      <c r="N9">
+        <v>71.07112000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1699338582153697</v>
+      </c>
+      <c r="P9">
+        <v>0.181298667526812</v>
+      </c>
+      <c r="Q9">
+        <v>0.6464392171466669</v>
+      </c>
+      <c r="R9">
+        <v>5.817952954320001</v>
+      </c>
+      <c r="S9">
+        <v>0.1357550484270514</v>
+      </c>
+      <c r="T9">
+        <v>0.1448340527799315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.027287</v>
+      </c>
+      <c r="H10">
+        <v>0.081861</v>
+      </c>
+      <c r="I10">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J10">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.2168665</v>
+      </c>
+      <c r="N10">
+        <v>52.433733</v>
+      </c>
+      <c r="O10">
+        <v>0.18805669340777</v>
+      </c>
+      <c r="P10">
+        <v>0.1337556791894743</v>
+      </c>
+      <c r="Q10">
+        <v>0.7153796361855002</v>
+      </c>
+      <c r="R10">
+        <v>4.292277817113001</v>
+      </c>
+      <c r="S10">
+        <v>0.1502328364030161</v>
+      </c>
+      <c r="T10">
+        <v>0.1068533892918929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.027287</v>
+      </c>
+      <c r="H11">
+        <v>0.081861</v>
+      </c>
+      <c r="I11">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J11">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.297748</v>
+      </c>
+      <c r="N11">
+        <v>72.893244</v>
+      </c>
+      <c r="O11">
+        <v>0.1742906287498262</v>
+      </c>
+      <c r="P11">
+        <v>0.1859468094622229</v>
+      </c>
+      <c r="Q11">
+        <v>0.663012649676</v>
+      </c>
+      <c r="R11">
+        <v>5.967113847084</v>
+      </c>
+      <c r="S11">
+        <v>0.1392355413735547</v>
+      </c>
+      <c r="T11">
+        <v>0.1485473135754217</v>
       </c>
     </row>
   </sheetData>
